--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="1800"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="2925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:H4"/>
+  <oleSize ref="A1:I8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>firstname</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>anonymousghost23101996@gmail.com</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>MY DASHBOARD</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,10 +432,11 @@
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +455,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -468,8 +478,11 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -487,6 +500,9 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -504,40 +520,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="2925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="2925"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I8"/>
+  <oleSize ref="A1:G8"/>
 </workbook>
 </file>
 
@@ -60,13 +60,13 @@
     <t>anonymousghost231996@gmail.com</t>
   </si>
   <si>
-    <t>anonymousghost23101996@gmail.com</t>
-  </si>
-  <si>
     <t>assert</t>
   </si>
   <si>
     <t>MY DASHBOARD</t>
+  </si>
+  <si>
+    <t>anonymousghost012@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -552,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="2925"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14700" windowHeight="2925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G8"/>
+  <oleSize ref="A1:H8"/>
 </workbook>
 </file>
 
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>firstname</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>anonymousghost012@gmail.com</t>
+  </si>
+  <si>
+    <t>LOGIN OR CREATE AN ACOOUNT</t>
   </si>
 </sst>
 </file>
@@ -523,14 +526,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -563,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -11,7 +11,7 @@
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:H8"/>
+  <oleSize ref="A1:G8"/>
 </workbook>
 </file>
 
@@ -526,7 +526,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -69,7 +69,7 @@
     <t>anonymousghost012@gmail.com</t>
   </si>
   <si>
-    <t>LOGIN OR CREATE AN ACOOUNT</t>
+    <t>My DASHBOARD</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>firstname</t>
   </si>
@@ -51,15 +51,9 @@
     <t>more</t>
   </si>
   <si>
-    <t>anonymousghost1996@gmail.com</t>
-  </si>
-  <si>
     <t>qwerty@123</t>
   </si>
   <si>
-    <t>anonymousghost231996@gmail.com</t>
-  </si>
-  <si>
     <t>assert</t>
   </si>
   <si>
@@ -70,13 +64,16 @@
   </si>
   <si>
     <t>My DASHBOARD</t>
+  </si>
+  <si>
+    <t>anonymousghost1996231@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +85,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0066CC"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -123,10 +113,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,7 +414,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -472,17 +461,17 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -496,16 +485,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +515,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,18 +533,18 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -566,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -66,7 +66,7 @@
     <t>My DASHBOARD</t>
   </si>
   <si>
-    <t>anonymousghost1996231@gmail.com</t>
+    <t>anonymousghost19962312@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14700" windowHeight="2925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14700" windowHeight="2925"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>My DASHBOARD</t>
   </si>
   <si>
-    <t>anonymousghost19962312@gmail.com</t>
+    <t>anonymousghost1996231234@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
